--- a/studyphase.xlsx
+++ b/studyphase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000Faezeh\پایان نامه قطعی\پرسشنامه\psychopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E9E4DC-534E-4AB0-A2EB-C9923A9DC466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA93C62-FD8B-43EA-92AC-5A6788FDC813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F75CA63-D551-494B-9FE5-91C8AA1F30FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>دیجی کالا</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>repitition</t>
+  </si>
+  <si>
+    <t>brand_morphemes</t>
+  </si>
+  <si>
+    <t>brand_syllables</t>
+  </si>
+  <si>
+    <t>semantic_coherence_score</t>
   </si>
 </sst>
 </file>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF777F0-389D-4399-8153-4D76EBD3DE57}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -543,10 +552,13 @@
     <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -559,8 +571,17 @@
       <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +594,17 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -587,8 +617,17 @@
       <c r="D3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -601,8 +640,17 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -615,8 +663,17 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,8 +686,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,8 +709,17 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -657,8 +732,17 @@
       <c r="D8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -671,8 +755,17 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -685,8 +778,17 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -699,8 +801,17 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -713,8 +824,17 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -727,8 +847,17 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -741,8 +870,17 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -755,8 +893,17 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -769,8 +916,17 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -783,8 +939,17 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -797,8 +962,17 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -811,8 +985,17 @@
       <c r="D19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -825,8 +1008,17 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -839,8 +1031,17 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -851,7 +1052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,7 +1063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -873,7 +1074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -884,7 +1085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -895,7 +1096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -906,7 +1107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -917,7 +1118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,7 +1129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -939,7 +1140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -950,7 +1151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
